--- a/集計くんPro_01/test_data/転記先.xlsx
+++ b/集計くんPro_01/test_data/転記先.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KCC\Aggregate\Script_01\集計くんPro\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aggregate_Pro\集計くんPro_01\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA10E23-5A32-4039-88DB-11E016645495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91451E92-9E8E-47C6-BAEB-034B7E556214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="2280" windowWidth="21600" windowHeight="11295" xr2:uid="{66AF0CE5-D5AE-425C-B2CA-E31D00DF9BE8}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{66AF0CE5-D5AE-425C-B2CA-E31D00DF9BE8}"/>
   </bookViews>
   <sheets>
     <sheet name="固定資産の部" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
     <definedName name="DATA2">#REF!</definedName>
     <definedName name="KBN">#REF!</definedName>
     <definedName name="MST">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">固定資産の部!$A$1:$G$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">固定資産の部!$A$1:$G$83</definedName>
     <definedName name="TEST0" localSheetId="0">#REF!</definedName>
     <definedName name="TEST0">#REF!</definedName>
     <definedName name="TEST1" localSheetId="0">#REF!</definedName>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="42">
   <si>
     <t>簿価</t>
     <rPh sb="0" eb="2">
@@ -161,6 +161,100 @@
   <si>
     <t>グループ名称</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設備7_グループA</t>
+  </si>
+  <si>
+    <t>開発部</t>
+  </si>
+  <si>
+    <t>グループA</t>
+  </si>
+  <si>
+    <t>設備8_グループA</t>
+  </si>
+  <si>
+    <t>設備7_グループB</t>
+  </si>
+  <si>
+    <t>グループB</t>
+  </si>
+  <si>
+    <t>設備8_グループB</t>
+  </si>
+  <si>
+    <t>設備7_グループC</t>
+  </si>
+  <si>
+    <t>グループC</t>
+  </si>
+  <si>
+    <t>設備8_グループC</t>
+  </si>
+  <si>
+    <t>設備3_グループA</t>
+  </si>
+  <si>
+    <t>設備4_グループA</t>
+  </si>
+  <si>
+    <t>設備5_グループA</t>
+  </si>
+  <si>
+    <t>設備6_グループA</t>
+  </si>
+  <si>
+    <t>設備1_グループB</t>
+  </si>
+  <si>
+    <t>設備2_グループB</t>
+  </si>
+  <si>
+    <t>設備3_グループB</t>
+  </si>
+  <si>
+    <t>設備4_グループB</t>
+  </si>
+  <si>
+    <t>設備5_グループB</t>
+  </si>
+  <si>
+    <t>設備6_グループB</t>
+  </si>
+  <si>
+    <t>設備1_グループC</t>
+  </si>
+  <si>
+    <t>設備2_グループC</t>
+  </si>
+  <si>
+    <t>設備3_グループC</t>
+  </si>
+  <si>
+    <t>設備4_グループC</t>
+  </si>
+  <si>
+    <t>設備5_グループC</t>
+  </si>
+  <si>
+    <t>設備6_グループC</t>
+  </si>
+  <si>
+    <t>設備1_グループA</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>開発部</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>グループA</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>設備2_グループA</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -233,7 +327,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -387,6 +481,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -395,105 +537,135 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -595,7 +767,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>638735</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1036,7 +1208,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
@@ -1113,87 +1285,1483 @@
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" thickTop="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
+      <c r="B5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2025</v>
+      </c>
+      <c r="E5" s="12">
+        <v>4</v>
+      </c>
+      <c r="F5" s="13">
+        <v>500</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="B6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="17">
+        <v>2025</v>
+      </c>
+      <c r="E6" s="17">
+        <v>5</v>
+      </c>
+      <c r="F6" s="18">
+        <v>400</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-    </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" thickTop="1">
+      <c r="B7" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E7" s="35">
+        <v>6</v>
+      </c>
+      <c r="F7" s="36">
+        <v>600</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1">
       <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="B8" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E8" s="35">
+        <v>7</v>
+      </c>
+      <c r="F8" s="36">
+        <v>700</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B10" s="6" t="s">
+      <c r="B9" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E9" s="35">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="F9" s="36">
+        <v>3000</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="35">
+        <v>2026</v>
+      </c>
+      <c r="E10" s="35">
         <v>1</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" thickTop="1">
+      <c r="F10" s="36">
+        <v>200</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
+      <c r="B11" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E11" s="35">
+        <v>4</v>
+      </c>
+      <c r="F11" s="36">
+        <v>500</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" thickBot="1">
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
-    </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" thickTop="1"/>
+      <c r="B12" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E12" s="35">
+        <v>5</v>
+      </c>
+      <c r="F12" s="36">
+        <v>400</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E13" s="35">
+        <v>6</v>
+      </c>
+      <c r="F13" s="36">
+        <v>600</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E14" s="35">
+        <v>7</v>
+      </c>
+      <c r="F14" s="36">
+        <v>700</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E15" s="35">
+        <v>8</v>
+      </c>
+      <c r="F15" s="36">
+        <v>3000</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18" customHeight="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="35">
+        <v>2026</v>
+      </c>
+      <c r="E16" s="35">
+        <v>1</v>
+      </c>
+      <c r="F16" s="36">
+        <v>200</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:7" ht="18" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E18" s="35">
+        <v>4</v>
+      </c>
+      <c r="F18" s="36">
+        <v>5000</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" customHeight="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E19" s="35">
+        <v>5</v>
+      </c>
+      <c r="F19" s="36">
+        <v>4000</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" customHeight="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E20" s="35">
+        <v>6</v>
+      </c>
+      <c r="F20" s="36">
+        <v>6000</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E21" s="35">
+        <v>7</v>
+      </c>
+      <c r="F21" s="36">
+        <v>7000</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E22" s="35">
+        <v>8</v>
+      </c>
+      <c r="F22" s="36">
+        <v>30000</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="35">
+        <v>2026</v>
+      </c>
+      <c r="E23" s="35">
+        <v>1</v>
+      </c>
+      <c r="F23" s="36">
+        <v>2000</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E24" s="35">
+        <v>6</v>
+      </c>
+      <c r="F24" s="36">
+        <v>600</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E25" s="35">
+        <v>7</v>
+      </c>
+      <c r="F25" s="36">
+        <v>700</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" customHeight="1">
+      <c r="A26" s="1"/>
+      <c r="B26" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E26" s="35">
+        <v>8</v>
+      </c>
+      <c r="F26" s="36">
+        <v>3000</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18" customHeight="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="35">
+        <v>2026</v>
+      </c>
+      <c r="E27" s="35">
+        <v>1</v>
+      </c>
+      <c r="F27" s="36">
+        <v>200</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18" customHeight="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E28" s="35">
+        <v>4</v>
+      </c>
+      <c r="F28" s="36">
+        <v>500</v>
+      </c>
+      <c r="G28" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" customHeight="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E29" s="35">
+        <v>5</v>
+      </c>
+      <c r="F29" s="36">
+        <v>400</v>
+      </c>
+      <c r="G29" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18" customHeight="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E30" s="35">
+        <v>6</v>
+      </c>
+      <c r="F30" s="36">
+        <v>600</v>
+      </c>
+      <c r="G30" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18" customHeight="1">
+      <c r="A31" s="1"/>
+      <c r="B31" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E31" s="35">
+        <v>7</v>
+      </c>
+      <c r="F31" s="36">
+        <v>700</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" customHeight="1">
+      <c r="A32" s="1"/>
+      <c r="B32" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E32" s="35">
+        <v>8</v>
+      </c>
+      <c r="F32" s="36">
+        <v>3000</v>
+      </c>
+      <c r="G32" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18" customHeight="1">
+      <c r="A33" s="1"/>
+      <c r="B33" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="35">
+        <v>2026</v>
+      </c>
+      <c r="E33" s="35">
+        <v>1</v>
+      </c>
+      <c r="F33" s="36">
+        <v>200</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18" customHeight="1">
+      <c r="A34" s="1"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="37"/>
+    </row>
+    <row r="35" spans="1:7" ht="18" customHeight="1">
+      <c r="A35" s="1"/>
+      <c r="B35" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E35" s="35">
+        <v>4</v>
+      </c>
+      <c r="F35" s="36">
+        <v>5000</v>
+      </c>
+      <c r="G35" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18" customHeight="1">
+      <c r="A36" s="1"/>
+      <c r="B36" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E36" s="35">
+        <v>5</v>
+      </c>
+      <c r="F36" s="36">
+        <v>4000</v>
+      </c>
+      <c r="G36" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18" customHeight="1">
+      <c r="A37" s="1"/>
+      <c r="B37" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E37" s="35">
+        <v>6</v>
+      </c>
+      <c r="F37" s="36">
+        <v>6000</v>
+      </c>
+      <c r="G37" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18" customHeight="1">
+      <c r="A38" s="1"/>
+      <c r="B38" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E38" s="35">
+        <v>7</v>
+      </c>
+      <c r="F38" s="36">
+        <v>7000</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18" customHeight="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E39" s="35">
+        <v>8</v>
+      </c>
+      <c r="F39" s="36">
+        <v>30000</v>
+      </c>
+      <c r="G39" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18" customHeight="1">
+      <c r="A40" s="1"/>
+      <c r="B40" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="35">
+        <v>2026</v>
+      </c>
+      <c r="E40" s="35">
+        <v>1</v>
+      </c>
+      <c r="F40" s="36">
+        <v>2000</v>
+      </c>
+      <c r="G40" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18" customHeight="1">
+      <c r="A41" s="1"/>
+      <c r="B41" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E41" s="35">
+        <v>6</v>
+      </c>
+      <c r="F41" s="36">
+        <v>600</v>
+      </c>
+      <c r="G41" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18" customHeight="1">
+      <c r="A42" s="1"/>
+      <c r="B42" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E42" s="35">
+        <v>7</v>
+      </c>
+      <c r="F42" s="36">
+        <v>700</v>
+      </c>
+      <c r="G42" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18" customHeight="1">
+      <c r="A43" s="1"/>
+      <c r="B43" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E43" s="35">
+        <v>8</v>
+      </c>
+      <c r="F43" s="36">
+        <v>3000</v>
+      </c>
+      <c r="G43" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18" customHeight="1">
+      <c r="A44" s="1"/>
+      <c r="B44" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="35">
+        <v>2026</v>
+      </c>
+      <c r="E44" s="35">
+        <v>1</v>
+      </c>
+      <c r="F44" s="36">
+        <v>200</v>
+      </c>
+      <c r="G44" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18" customHeight="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E45" s="35">
+        <v>4</v>
+      </c>
+      <c r="F45" s="36">
+        <v>500</v>
+      </c>
+      <c r="G45" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18" customHeight="1">
+      <c r="A46" s="1"/>
+      <c r="B46" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E46" s="35">
+        <v>5</v>
+      </c>
+      <c r="F46" s="36">
+        <v>400</v>
+      </c>
+      <c r="G46" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18" customHeight="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E47" s="35">
+        <v>6</v>
+      </c>
+      <c r="F47" s="36">
+        <v>600</v>
+      </c>
+      <c r="G47" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18" customHeight="1">
+      <c r="A48" s="1"/>
+      <c r="B48" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E48" s="35">
+        <v>7</v>
+      </c>
+      <c r="F48" s="36">
+        <v>700</v>
+      </c>
+      <c r="G48" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="18" customHeight="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E49" s="35">
+        <v>8</v>
+      </c>
+      <c r="F49" s="36">
+        <v>3000</v>
+      </c>
+      <c r="G49" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18" customHeight="1">
+      <c r="A50" s="1"/>
+      <c r="B50" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="35">
+        <v>2026</v>
+      </c>
+      <c r="E50" s="35">
+        <v>1</v>
+      </c>
+      <c r="F50" s="36">
+        <v>200</v>
+      </c>
+      <c r="G50" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="18" customHeight="1">
+      <c r="A51" s="1"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="37"/>
+    </row>
+    <row r="52" spans="1:7" ht="18" customHeight="1">
+      <c r="A52" s="1"/>
+      <c r="B52" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E52" s="35">
+        <v>4</v>
+      </c>
+      <c r="F52" s="36">
+        <v>5000</v>
+      </c>
+      <c r="G52" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="18" customHeight="1">
+      <c r="A53" s="1"/>
+      <c r="B53" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E53" s="35">
+        <v>5</v>
+      </c>
+      <c r="F53" s="36">
+        <v>4000</v>
+      </c>
+      <c r="G53" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="18" customHeight="1">
+      <c r="A54" s="1"/>
+      <c r="B54" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E54" s="35">
+        <v>6</v>
+      </c>
+      <c r="F54" s="36">
+        <v>6000</v>
+      </c>
+      <c r="G54" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="18" customHeight="1">
+      <c r="A55" s="1"/>
+      <c r="B55" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E55" s="35">
+        <v>7</v>
+      </c>
+      <c r="F55" s="36">
+        <v>7000</v>
+      </c>
+      <c r="G55" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="18" customHeight="1">
+      <c r="A56" s="1"/>
+      <c r="B56" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="35">
+        <v>2025</v>
+      </c>
+      <c r="E56" s="35">
+        <v>8</v>
+      </c>
+      <c r="F56" s="36">
+        <v>30000</v>
+      </c>
+      <c r="G56" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="18" customHeight="1">
+      <c r="A57" s="1"/>
+      <c r="B57" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="35">
+        <v>2026</v>
+      </c>
+      <c r="E57" s="35">
+        <v>1</v>
+      </c>
+      <c r="F57" s="36">
+        <v>2000</v>
+      </c>
+      <c r="G57" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="18" customHeight="1" thickBot="1">
+      <c r="A58" s="1"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="24"/>
+    </row>
+    <row r="59" spans="1:7" ht="18" customHeight="1" thickTop="1">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" ht="18" customHeight="1" thickBot="1">
+      <c r="A60" s="1"/>
+      <c r="B60" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B61" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30" customHeight="1" thickTop="1">
+      <c r="B62" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="40">
+        <v>2026</v>
+      </c>
+      <c r="E62" s="40">
+        <v>2</v>
+      </c>
+      <c r="F62" s="41"/>
+      <c r="G62" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30" customHeight="1">
+      <c r="B63" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="40">
+        <v>2026</v>
+      </c>
+      <c r="E63" s="40">
+        <v>3</v>
+      </c>
+      <c r="F63" s="41"/>
+      <c r="G63" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="30" customHeight="1">
+      <c r="B64" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="40">
+        <v>2026</v>
+      </c>
+      <c r="E64" s="40">
+        <v>2</v>
+      </c>
+      <c r="F64" s="41"/>
+      <c r="G64" s="42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30" customHeight="1">
+      <c r="B65" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="40">
+        <v>2026</v>
+      </c>
+      <c r="E65" s="40">
+        <v>3</v>
+      </c>
+      <c r="F65" s="41"/>
+      <c r="G65" s="42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="30" customHeight="1">
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="42"/>
+    </row>
+    <row r="67" spans="1:7" ht="30" customHeight="1">
+      <c r="B67" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="40">
+        <v>2026</v>
+      </c>
+      <c r="E67" s="40">
+        <v>2</v>
+      </c>
+      <c r="F67" s="41"/>
+      <c r="G67" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30" customHeight="1">
+      <c r="B68" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="40">
+        <v>2026</v>
+      </c>
+      <c r="E68" s="40">
+        <v>3</v>
+      </c>
+      <c r="F68" s="41"/>
+      <c r="G68" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="30" customHeight="1">
+      <c r="B69" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="40">
+        <v>2026</v>
+      </c>
+      <c r="E69" s="40">
+        <v>2</v>
+      </c>
+      <c r="F69" s="41"/>
+      <c r="G69" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="30" customHeight="1">
+      <c r="B70" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="40">
+        <v>2026</v>
+      </c>
+      <c r="E70" s="40">
+        <v>3</v>
+      </c>
+      <c r="F70" s="41"/>
+      <c r="G70" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="30" customHeight="1">
+      <c r="B71" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="40">
+        <v>2026</v>
+      </c>
+      <c r="E71" s="40">
+        <v>2</v>
+      </c>
+      <c r="F71" s="41"/>
+      <c r="G71" s="42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="30" customHeight="1">
+      <c r="B72" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="40">
+        <v>2026</v>
+      </c>
+      <c r="E72" s="40">
+        <v>3</v>
+      </c>
+      <c r="F72" s="41"/>
+      <c r="G72" s="42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="30" customHeight="1">
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="42"/>
+    </row>
+    <row r="74" spans="1:7" ht="30" customHeight="1">
+      <c r="B74" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="40">
+        <v>2026</v>
+      </c>
+      <c r="E74" s="40">
+        <v>2</v>
+      </c>
+      <c r="F74" s="41"/>
+      <c r="G74" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="30" customHeight="1">
+      <c r="B75" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="40">
+        <v>2026</v>
+      </c>
+      <c r="E75" s="40">
+        <v>3</v>
+      </c>
+      <c r="F75" s="41"/>
+      <c r="G75" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="18" customHeight="1">
+      <c r="A76" s="1"/>
+      <c r="B76" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="29">
+        <v>2026</v>
+      </c>
+      <c r="E76" s="29">
+        <v>2</v>
+      </c>
+      <c r="F76" s="30"/>
+      <c r="G76" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="18" customHeight="1">
+      <c r="A77" s="1"/>
+      <c r="B77" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="17">
+        <v>2026</v>
+      </c>
+      <c r="E77" s="17">
+        <v>3</v>
+      </c>
+      <c r="F77" s="18"/>
+      <c r="G77" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="18" customHeight="1">
+      <c r="A78" s="1"/>
+      <c r="B78" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="35">
+        <v>2026</v>
+      </c>
+      <c r="E78" s="35">
+        <v>2</v>
+      </c>
+      <c r="F78" s="36"/>
+      <c r="G78" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="18" customHeight="1">
+      <c r="A79" s="1"/>
+      <c r="B79" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="35">
+        <v>2026</v>
+      </c>
+      <c r="E79" s="35">
+        <v>3</v>
+      </c>
+      <c r="F79" s="36"/>
+      <c r="G79" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="18" customHeight="1">
+      <c r="A80" s="1"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="37"/>
+    </row>
+    <row r="81" spans="1:7" ht="18" customHeight="1">
+      <c r="A81" s="1"/>
+      <c r="B81" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="35">
+        <v>2026</v>
+      </c>
+      <c r="E81" s="35">
+        <v>2</v>
+      </c>
+      <c r="F81" s="36"/>
+      <c r="G81" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="18" customHeight="1">
+      <c r="A82" s="1"/>
+      <c r="B82" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="35">
+        <v>2026</v>
+      </c>
+      <c r="E82" s="35">
+        <v>3</v>
+      </c>
+      <c r="F82" s="36"/>
+      <c r="G82" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="18" customHeight="1" thickBot="1">
+      <c r="B83" s="20"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="24"/>
+    </row>
+    <row r="84" spans="1:7" ht="18" customHeight="1" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.11811023622047245" right="0.19685039370078741" top="0.86614173228346458" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.51181102362204722"/>
